--- a/SWP/Week7/Docs/OnlineLearn_Function Details.xlsx
+++ b/SWP/Week7/Docs/OnlineLearn_Function Details.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linh123\SWP391_Project\SWP\Week7\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -427,14 +432,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -536,151 +535,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,13 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,188 +567,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -909,392 +591,104 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1316,7 +710,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1618,71 +1012,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <pane ySplit="9" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.3" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.8" style="2" customWidth="1"/>
-    <col min="6" max="6" width="62.7" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.0166666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.1833333333333" style="2" customWidth="1"/>
-    <col min="10" max="228" width="8.8" style="2" customWidth="1"/>
-    <col min="229" max="16384" width="10.8" style="2"/>
+    <col min="2" max="2" width="15.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.69921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.69921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" style="2" customWidth="1"/>
+    <col min="10" max="228" width="8.796875" style="2" customWidth="1"/>
+    <col min="229" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1" spans="2:5">
+    <row r="1" spans="1:9" hidden="1">
       <c r="B1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" hidden="1" spans="2:5">
+    <row r="2" spans="1:9" hidden="1">
       <c r="B2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" hidden="1" spans="2:5">
+    <row r="3" spans="1:9" hidden="1">
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" hidden="1" spans="2:5">
+    <row r="4" spans="1:9" hidden="1">
       <c r="B4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="19.2" hidden="1" spans="5:5">
+    <row r="5" spans="1:9" ht="19.2" hidden="1">
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15.6" hidden="1" spans="5:5">
+    <row r="6" spans="1:9" ht="15.6" hidden="1">
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="17.4" hidden="1" spans="4:4">
+    <row r="7" spans="1:9" ht="17.399999999999999" hidden="1">
       <c r="D7" s="7"/>
     </row>
-    <row r="8" ht="18" hidden="1" spans="1:4">
+    <row r="8" spans="1:9" ht="18" hidden="1">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1695,7 +1089,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:6">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
@@ -1742,25 +1136,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="39.6" spans="1:9">
+    <row r="11" spans="1:9" ht="39.6">
       <c r="A11" s="12">
         <f>ROW()-9</f>
         <v>2</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="13">
-        <f>IF(E11="Complex",240,IF(E11="Medium",120,60))</f>
+        <f t="shared" ref="D11:D22" si="0">IF(E11="Complex",240,IF(E11="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="14">
@@ -1771,25 +1165,25 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" ht="52.8" spans="1:9">
+    <row r="12" spans="1:9" ht="52.8">
       <c r="A12" s="12">
         <f>ROW()-9</f>
         <v>3</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="13">
-        <f>IF(E12="Complex",240,IF(E12="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="14">
@@ -1800,25 +1194,25 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" ht="79.2" spans="1:9">
+    <row r="13" spans="1:9" ht="79.2">
       <c r="A13" s="12">
         <f>ROW()-9</f>
         <v>4</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="13">
-        <f>IF(E13="Complex",240,IF(E13="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="14">
@@ -1831,25 +1225,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="52.8" spans="1:9">
+    <row r="14" spans="1:9" ht="52.8">
       <c r="A14" s="12">
         <f>ROW()-9</f>
         <v>5</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="16">
-        <f>IF(E14="Complex",240,IF(E14="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="23" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="14"/>
@@ -1858,25 +1252,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="39.6" spans="1:9">
+    <row r="15" spans="1:9" ht="39.6">
       <c r="A15" s="12">
         <f>ROW()-9</f>
         <v>6</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="13">
-        <f>IF(E15="Complex",240,IF(E15="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="14">
@@ -1887,7 +1281,7 @@
       </c>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" ht="39.6" spans="1:9">
+    <row r="16" spans="1:9" ht="39.6">
       <c r="A16" s="12">
         <v>7</v>
       </c>
@@ -1898,13 +1292,13 @@
         <v>16</v>
       </c>
       <c r="D16" s="13">
-        <f>IF(E16="Complex",240,IF(E16="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="14">
@@ -1915,25 +1309,25 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" ht="26.4" spans="1:9">
+    <row r="17" spans="1:9" ht="26.4">
       <c r="A17" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" ref="A17:A22" si="1">ROW()-9</f>
         <v>8</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="13">
-        <f>IF(E17="Complex",240,IF(E17="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="14">
@@ -1944,9 +1338,9 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" ht="105.6" spans="1:9">
+    <row r="18" spans="1:9" ht="105.6">
       <c r="A18" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1956,7 +1350,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="13">
-        <f>IF(E18="Complex",240,IF(E18="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -1973,9 +1367,9 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" ht="52.8" spans="1:9">
+    <row r="19" spans="1:9" ht="52.8">
       <c r="A19" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1985,7 +1379,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="13">
-        <f>IF(E19="Complex",240,IF(E19="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -2002,9 +1396,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" ht="26.4" spans="1:9">
+    <row r="20" spans="1:9" ht="39.6">
       <c r="A20" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2014,7 +1408,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="13">
-        <f>IF(E20="Complex",240,IF(E20="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -2031,9 +1425,9 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" ht="92.4" spans="1:9">
+    <row r="21" spans="1:9" ht="92.4">
       <c r="A21" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2043,7 +1437,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="13">
-        <f>IF(E21="Complex",240,IF(E21="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E21" s="12" t="s">
@@ -2060,9 +1454,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" ht="52.8" spans="1:9">
+    <row r="22" spans="1:9" ht="52.8">
       <c r="A22" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -2072,7 +1466,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="13">
-        <f>IF(E22="Complex",240,IF(E22="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -2116,23 +1510,23 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12">
-        <f t="shared" ref="A24:A50" si="0">ROW()-9</f>
+        <f t="shared" ref="A24:A50" si="2">ROW()-9</f>
         <v>15</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="13">
-        <f t="shared" ref="D24:D50" si="1">IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
+        <f t="shared" ref="D24:D50" si="3">IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="14">
@@ -2145,23 +1539,23 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="21" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="14">
@@ -2174,23 +1568,23 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G26" s="14">
@@ -2199,125 +1593,125 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" ht="26.4" spans="1:9">
+    <row r="27" spans="1:9" ht="26.4">
       <c r="A27" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="21" t="s">
         <v>56</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" ht="26.4" spans="1:9">
+    <row r="28" spans="1:9" ht="26.4">
       <c r="A28" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="21" t="s">
         <v>58</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" ht="39.6" spans="1:9">
+    <row r="29" spans="1:9" ht="39.6">
       <c r="A29" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="21" t="s">
         <v>61</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" ht="39.6" spans="1:9">
+    <row r="30" spans="1:9" ht="39.6">
       <c r="A30" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="21" t="s">
         <v>64</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" ht="39.6" spans="1:9">
+    <row r="31" spans="1:9" ht="39.6">
       <c r="A31" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="21" t="s">
         <v>66</v>
       </c>
       <c r="G31" s="14"/>
@@ -2326,173 +1720,173 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" ht="92.4" spans="1:9">
+    <row r="33" spans="1:9" ht="92.4">
       <c r="A33" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="21" t="s">
         <v>70</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" ht="39.6" spans="1:9">
+    <row r="34" spans="1:9" ht="39.6">
       <c r="A34" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="21" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" ht="52.8" spans="1:9">
+    <row r="35" spans="1:9" ht="52.8">
       <c r="A35" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D35" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="21" t="s">
         <v>73</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" ht="26.4" spans="1:9">
-      <c r="A36" s="18">
-        <f t="shared" si="0"/>
+    <row r="36" spans="1:9" ht="26.4">
+      <c r="A36" s="17">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="19">
-        <f t="shared" si="1"/>
+      <c r="D36" s="18">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="25" t="s">
         <v>75</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" ht="39.6" spans="1:9">
+    <row r="37" spans="1:9" ht="39.6">
       <c r="A37" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D37" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="21" t="s">
         <v>77</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" ht="39.6" spans="1:9">
+    <row r="38" spans="1:9" ht="39.6">
       <c r="A38" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="21" t="s">
         <v>79</v>
       </c>
       <c r="G38" s="14"/>
@@ -2501,123 +1895,123 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D39" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" ht="92.4" spans="1:9">
+    <row r="40" spans="1:9" ht="92.4">
       <c r="A40" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="21" t="s">
         <v>84</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" ht="52.8" spans="1:9">
+    <row r="41" spans="1:9" ht="52.8">
       <c r="A41" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="21" t="s">
         <v>86</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" ht="39.6" spans="1:9">
+    <row r="42" spans="1:9" ht="39.6">
       <c r="A42" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="21" t="s">
         <v>88</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" ht="79.2" spans="1:9">
+    <row r="43" spans="1:9" ht="79.2">
       <c r="A43" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="21" t="s">
         <v>90</v>
       </c>
       <c r="G43" s="14"/>
@@ -2626,180 +2020,180 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D44" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="118.8" spans="1:9">
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="118.8">
       <c r="A45" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="23" t="s">
         <v>94</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="105.6" spans="1:9">
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="105.6">
       <c r="A46" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" ht="92.4" spans="1:9">
-      <c r="A47" s="18">
-        <f t="shared" si="0"/>
+    <row r="47" spans="1:9" ht="92.4">
+      <c r="A47" s="17">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="19">
-        <f t="shared" si="1"/>
+      <c r="D47" s="18">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="25" t="s">
         <v>99</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
     </row>
-    <row r="48" ht="52.8" spans="1:9">
-      <c r="A48" s="18">
-        <f t="shared" si="0"/>
+    <row r="48" spans="1:9" ht="52.8">
+      <c r="A48" s="17">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="19">
-        <f t="shared" si="1"/>
+      <c r="D48" s="18">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="25" t="s">
         <v>101</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" ht="79.2" spans="1:9">
+    <row r="49" spans="1:9" ht="79.2">
       <c r="A49" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D49" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="21" t="s">
         <v>103</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" ht="26.4" spans="1:9">
+    <row r="50" spans="1:9" ht="26.4">
       <c r="A50" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D50" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="21" t="s">
         <v>105</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" ht="28.8" spans="1:6">
+    <row r="51" spans="1:9" ht="28.8">
       <c r="A51" s="2">
         <v>41</v>
       </c>
@@ -2819,7 +2213,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" ht="72" spans="1:6">
+    <row r="52" spans="1:9" ht="72">
       <c r="A52" s="2">
         <v>42</v>
       </c>
@@ -2839,7 +2233,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>43</v>
       </c>
@@ -2859,7 +2253,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:9">
       <c r="A54" s="2">
         <v>44</v>
       </c>
@@ -2879,7 +2273,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" ht="28.8" spans="1:6">
+    <row r="55" spans="1:9" ht="28.8">
       <c r="A55" s="2">
         <v>45</v>
       </c>
@@ -2899,7 +2293,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>46</v>
       </c>
@@ -2915,7 +2309,7 @@
       <c r="E56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="19" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2926,8 +2320,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SWP/Week7/Docs/OnlineLearn_Function Details.xlsx
+++ b/SWP/Week7/Docs/OnlineLearn_Function Details.xlsx
@@ -429,10 +429,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -536,6 +536,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -545,16 +553,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,7 +584,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,6 +614,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -605,26 +643,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,50 +679,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -707,25 +707,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,13 +845,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,133 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,6 +910,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -921,15 +945,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,32 +973,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1007,18 +996,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,131 +1026,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1629,9 +1629,9 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
@@ -1754,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="13">
-        <f>IF(E11="Complex",240,IF(E11="Medium",120,60))</f>
+        <f t="shared" ref="D11:D22" si="0">IF(E11="Complex",240,IF(E11="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -1783,7 +1783,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="13">
-        <f>IF(E12="Complex",240,IF(E12="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1812,7 +1812,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="13">
-        <f>IF(E13="Complex",240,IF(E13="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -1843,7 +1843,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="16">
-        <f>IF(E14="Complex",240,IF(E14="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1870,7 +1870,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="13">
-        <f>IF(E15="Complex",240,IF(E15="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -1898,11 +1898,11 @@
         <v>16</v>
       </c>
       <c r="D16" s="13">
-        <f>IF(E16="Complex",240,IF(E16="Medium",120,60))</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>31</v>
@@ -1911,13 +1911,13 @@
         <v>6</v>
       </c>
       <c r="H16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="14"/>
     </row>
     <row r="17" ht="26.4" spans="1:9">
       <c r="A17" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" ref="A17:A22" si="1">ROW()-9</f>
         <v>8</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -1927,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="13">
-        <f>IF(E17="Complex",240,IF(E17="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -1946,7 +1946,7 @@
     </row>
     <row r="18" ht="105.6" spans="1:9">
       <c r="A18" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1956,7 +1956,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="13">
-        <f>IF(E18="Complex",240,IF(E18="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="19" ht="52.8" spans="1:9">
       <c r="A19" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1985,7 +1985,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="13">
-        <f>IF(E19="Complex",240,IF(E19="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -2004,7 +2004,7 @@
     </row>
     <row r="20" ht="26.4" spans="1:9">
       <c r="A20" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2014,7 +2014,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="13">
-        <f>IF(E20="Complex",240,IF(E20="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -2033,7 +2033,7 @@
     </row>
     <row r="21" ht="92.4" spans="1:9">
       <c r="A21" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2043,7 +2043,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="13">
-        <f>IF(E21="Complex",240,IF(E21="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E21" s="12" t="s">
@@ -2062,7 +2062,7 @@
     </row>
     <row r="22" ht="52.8" spans="1:9">
       <c r="A22" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -2072,11 +2072,11 @@
         <v>35</v>
       </c>
       <c r="D22" s="13">
-        <f>IF(E22="Complex",240,IF(E22="Medium",120,60))</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>45</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12">
-        <f t="shared" ref="A24:A50" si="0">ROW()-9</f>
+        <f t="shared" ref="A24:A50" si="2">ROW()-9</f>
         <v>15</v>
       </c>
       <c r="B24" s="22" t="s">
@@ -2126,7 +2126,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="13">
-        <f t="shared" ref="D24:D50" si="1">IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
+        <f t="shared" ref="D24:D50" si="3">IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2145,7 +2145,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -2155,7 +2155,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -2174,7 +2174,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -2184,7 +2184,7 @@
         <v>47</v>
       </c>
       <c r="D26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -2201,7 +2201,7 @@
     </row>
     <row r="27" ht="26.4" spans="1:9">
       <c r="A27" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -2211,7 +2211,7 @@
         <v>47</v>
       </c>
       <c r="D27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -2221,12 +2221,14 @@
         <v>56</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="14">
+        <v>8</v>
+      </c>
       <c r="I27" s="14"/>
     </row>
     <row r="28" ht="26.4" spans="1:9">
       <c r="A28" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -2236,22 +2238,26 @@
         <v>47</v>
       </c>
       <c r="D28" s="13">
-        <f t="shared" si="1"/>
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="G28" s="14">
+        <v>11</v>
+      </c>
+      <c r="H28" s="14">
+        <v>3</v>
+      </c>
       <c r="I28" s="14"/>
     </row>
     <row r="29" ht="39.6" spans="1:9">
       <c r="A29" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
@@ -2261,7 +2267,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E29" s="12" t="s">
@@ -2271,12 +2277,14 @@
         <v>61</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="14">
+        <v>8</v>
+      </c>
       <c r="I29" s="14"/>
     </row>
     <row r="30" ht="39.6" spans="1:9">
       <c r="A30" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -2286,7 +2294,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E30" s="12" t="s">
@@ -2301,7 +2309,7 @@
     </row>
     <row r="31" ht="39.6" spans="1:9">
       <c r="A31" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B31" s="22" t="s">
@@ -2311,7 +2319,7 @@
         <v>63</v>
       </c>
       <c r="D31" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2326,7 +2334,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -2336,7 +2344,7 @@
         <v>63</v>
       </c>
       <c r="D32" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E32" s="12" t="s">
@@ -2351,7 +2359,7 @@
     </row>
     <row r="33" ht="92.4" spans="1:9">
       <c r="A33" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B33" s="22" t="s">
@@ -2361,7 +2369,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -2376,7 +2384,7 @@
     </row>
     <row r="34" ht="39.6" spans="1:9">
       <c r="A34" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -2386,7 +2394,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2401,7 +2409,7 @@
     </row>
     <row r="35" ht="52.8" spans="1:9">
       <c r="A35" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -2411,7 +2419,7 @@
         <v>69</v>
       </c>
       <c r="D35" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -2426,7 +2434,7 @@
     </row>
     <row r="36" ht="26.4" spans="1:9">
       <c r="A36" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B36" s="26" t="s">
@@ -2436,7 +2444,7 @@
         <v>69</v>
       </c>
       <c r="D36" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E36" s="18" t="s">
@@ -2451,7 +2459,7 @@
     </row>
     <row r="37" ht="39.6" spans="1:9">
       <c r="A37" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B37" s="22" t="s">
@@ -2461,7 +2469,7 @@
         <v>69</v>
       </c>
       <c r="D37" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -2476,7 +2484,7 @@
     </row>
     <row r="38" ht="39.6" spans="1:9">
       <c r="A38" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -2486,7 +2494,7 @@
         <v>69</v>
       </c>
       <c r="D38" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -2501,7 +2509,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -2511,7 +2519,7 @@
         <v>69</v>
       </c>
       <c r="D39" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -2526,7 +2534,7 @@
     </row>
     <row r="40" ht="92.4" spans="1:9">
       <c r="A40" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B40" s="22" t="s">
@@ -2536,7 +2544,7 @@
         <v>83</v>
       </c>
       <c r="D40" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2551,7 +2559,7 @@
     </row>
     <row r="41" ht="52.8" spans="1:9">
       <c r="A41" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B41" s="22" t="s">
@@ -2561,7 +2569,7 @@
         <v>83</v>
       </c>
       <c r="D41" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E41" s="12" t="s">
@@ -2576,7 +2584,7 @@
     </row>
     <row r="42" ht="39.6" spans="1:9">
       <c r="A42" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B42" s="22" t="s">
@@ -2586,7 +2594,7 @@
         <v>83</v>
       </c>
       <c r="D42" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E42" s="12" t="s">
@@ -2601,7 +2609,7 @@
     </row>
     <row r="43" ht="79.2" spans="1:9">
       <c r="A43" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B43" s="22" t="s">
@@ -2611,7 +2619,7 @@
         <v>83</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -2626,7 +2634,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -2636,7 +2644,7 @@
         <v>83</v>
       </c>
       <c r="D44" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E44" s="12" t="s">
@@ -2651,7 +2659,7 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="118.8" spans="1:9">
       <c r="A45" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -2661,7 +2669,7 @@
         <v>63</v>
       </c>
       <c r="D45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -2676,7 +2684,7 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="105.6" spans="1:9">
       <c r="A46" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B46" s="24" t="s">
@@ -2686,7 +2694,7 @@
         <v>63</v>
       </c>
       <c r="D46" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E46" s="15" t="s">
@@ -2701,7 +2709,7 @@
     </row>
     <row r="47" ht="92.4" spans="1:9">
       <c r="A47" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -2711,7 +2719,7 @@
         <v>98</v>
       </c>
       <c r="D47" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E47" s="18" t="s">
@@ -2726,7 +2734,7 @@
     </row>
     <row r="48" ht="52.8" spans="1:9">
       <c r="A48" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B48" s="26" t="s">
@@ -2736,7 +2744,7 @@
         <v>98</v>
       </c>
       <c r="D48" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E48" s="18" t="s">
@@ -2751,7 +2759,7 @@
     </row>
     <row r="49" ht="79.2" spans="1:9">
       <c r="A49" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B49" s="22" t="s">
@@ -2761,7 +2769,7 @@
         <v>98</v>
       </c>
       <c r="D49" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E49" s="12" t="s">
@@ -2776,7 +2784,7 @@
     </row>
     <row r="50" ht="26.4" spans="1:9">
       <c r="A50" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B50" s="22" t="s">
@@ -2786,7 +2794,7 @@
         <v>98</v>
       </c>
       <c r="D50" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E50" s="12" t="s">

--- a/SWP/Week7/Docs/OnlineLearn_Function Details.xlsx
+++ b/SWP/Week7/Docs/OnlineLearn_Function Details.xlsx
@@ -429,10 +429,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -536,6 +536,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -544,39 +628,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,66 +644,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -658,7 +652,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,13 +666,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -707,13 +707,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,163 +875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,30 +910,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -945,6 +921,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,6 +958,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -996,161 +1007,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1629,9 +1629,9 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
@@ -1754,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" ref="D11:D22" si="0">IF(E11="Complex",240,IF(E11="Medium",120,60))</f>
+        <f>IF(E11="Complex",240,IF(E11="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -1783,7 +1783,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E12="Complex",240,IF(E12="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1812,7 +1812,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E13="Complex",240,IF(E13="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -1843,7 +1843,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="0"/>
+        <f>IF(E14="Complex",240,IF(E14="Medium",120,60))</f>
         <v>240</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1870,7 +1870,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E15="Complex",240,IF(E15="Medium",120,60))</f>
         <v>240</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -1898,11 +1898,11 @@
         <v>16</v>
       </c>
       <c r="D16" s="13">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f>IF(E16="Complex",240,IF(E16="Medium",120,60))</f>
+        <v>60</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>31</v>
@@ -1911,13 +1911,13 @@
         <v>6</v>
       </c>
       <c r="H16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="14"/>
     </row>
     <row r="17" ht="26.4" spans="1:9">
       <c r="A17" s="12">
-        <f t="shared" ref="A17:A22" si="1">ROW()-9</f>
+        <f>ROW()-9</f>
         <v>8</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -1927,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E17="Complex",240,IF(E17="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -1946,7 +1946,7 @@
     </row>
     <row r="18" ht="105.6" spans="1:9">
       <c r="A18" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>9</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1956,7 +1956,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E18="Complex",240,IF(E18="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="19" ht="52.8" spans="1:9">
       <c r="A19" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1985,7 +1985,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E19="Complex",240,IF(E19="Medium",120,60))</f>
         <v>240</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -2004,7 +2004,7 @@
     </row>
     <row r="20" ht="26.4" spans="1:9">
       <c r="A20" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2014,7 +2014,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E20="Complex",240,IF(E20="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -2033,7 +2033,7 @@
     </row>
     <row r="21" ht="92.4" spans="1:9">
       <c r="A21" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2043,7 +2043,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="13">
-        <f t="shared" si="0"/>
+        <f>IF(E21="Complex",240,IF(E21="Medium",120,60))</f>
         <v>240</v>
       </c>
       <c r="E21" s="12" t="s">
@@ -2062,7 +2062,7 @@
     </row>
     <row r="22" ht="52.8" spans="1:9">
       <c r="A22" s="12">
-        <f t="shared" si="1"/>
+        <f>ROW()-9</f>
         <v>13</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -2072,11 +2072,11 @@
         <v>35</v>
       </c>
       <c r="D22" s="13">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f>IF(E22="Complex",240,IF(E22="Medium",120,60))</f>
+        <v>60</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>45</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12">
-        <f t="shared" ref="A24:A50" si="2">ROW()-9</f>
+        <f t="shared" ref="A24:A50" si="0">ROW()-9</f>
         <v>15</v>
       </c>
       <c r="B24" s="22" t="s">
@@ -2126,7 +2126,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="13">
-        <f t="shared" ref="D24:D50" si="3">IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
+        <f t="shared" ref="D24:D50" si="1">IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2145,7 +2145,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -2155,7 +2155,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -2174,7 +2174,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -2184,7 +2184,7 @@
         <v>47</v>
       </c>
       <c r="D26" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -2201,7 +2201,7 @@
     </row>
     <row r="27" ht="26.4" spans="1:9">
       <c r="A27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -2211,7 +2211,7 @@
         <v>47</v>
       </c>
       <c r="D27" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -2221,14 +2221,12 @@
         <v>56</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14">
-        <v>8</v>
-      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
     <row r="28" ht="26.4" spans="1:9">
       <c r="A28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -2238,26 +2236,22 @@
         <v>47</v>
       </c>
       <c r="D28" s="13">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="14">
-        <v>11</v>
-      </c>
-      <c r="H28" s="14">
-        <v>3</v>
-      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
     <row r="29" ht="39.6" spans="1:9">
       <c r="A29" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
@@ -2267,7 +2261,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="E29" s="12" t="s">
@@ -2277,14 +2271,12 @@
         <v>61</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="14">
-        <v>8</v>
-      </c>
+      <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
     <row r="30" ht="39.6" spans="1:9">
       <c r="A30" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -2294,7 +2286,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E30" s="12" t="s">
@@ -2309,7 +2301,7 @@
     </row>
     <row r="31" ht="39.6" spans="1:9">
       <c r="A31" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B31" s="22" t="s">
@@ -2319,7 +2311,7 @@
         <v>63</v>
       </c>
       <c r="D31" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2334,7 +2326,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -2344,7 +2336,7 @@
         <v>63</v>
       </c>
       <c r="D32" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E32" s="12" t="s">
@@ -2359,7 +2351,7 @@
     </row>
     <row r="33" ht="92.4" spans="1:9">
       <c r="A33" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B33" s="22" t="s">
@@ -2369,7 +2361,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -2384,7 +2376,7 @@
     </row>
     <row r="34" ht="39.6" spans="1:9">
       <c r="A34" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -2394,7 +2386,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2409,7 +2401,7 @@
     </row>
     <row r="35" ht="52.8" spans="1:9">
       <c r="A35" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -2419,7 +2411,7 @@
         <v>69</v>
       </c>
       <c r="D35" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -2434,7 +2426,7 @@
     </row>
     <row r="36" ht="26.4" spans="1:9">
       <c r="A36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B36" s="26" t="s">
@@ -2444,7 +2436,7 @@
         <v>69</v>
       </c>
       <c r="D36" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E36" s="18" t="s">
@@ -2459,7 +2451,7 @@
     </row>
     <row r="37" ht="39.6" spans="1:9">
       <c r="A37" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B37" s="22" t="s">
@@ -2469,7 +2461,7 @@
         <v>69</v>
       </c>
       <c r="D37" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -2484,7 +2476,7 @@
     </row>
     <row r="38" ht="39.6" spans="1:9">
       <c r="A38" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -2494,7 +2486,7 @@
         <v>69</v>
       </c>
       <c r="D38" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -2509,7 +2501,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B39" s="22" t="s">
@@ -2519,7 +2511,7 @@
         <v>69</v>
       </c>
       <c r="D39" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -2534,7 +2526,7 @@
     </row>
     <row r="40" ht="92.4" spans="1:9">
       <c r="A40" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B40" s="22" t="s">
@@ -2544,7 +2536,7 @@
         <v>83</v>
       </c>
       <c r="D40" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2559,7 +2551,7 @@
     </row>
     <row r="41" ht="52.8" spans="1:9">
       <c r="A41" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B41" s="22" t="s">
@@ -2569,7 +2561,7 @@
         <v>83</v>
       </c>
       <c r="D41" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="E41" s="12" t="s">
@@ -2584,7 +2576,7 @@
     </row>
     <row r="42" ht="39.6" spans="1:9">
       <c r="A42" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B42" s="22" t="s">
@@ -2594,7 +2586,7 @@
         <v>83</v>
       </c>
       <c r="D42" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E42" s="12" t="s">
@@ -2609,7 +2601,7 @@
     </row>
     <row r="43" ht="79.2" spans="1:9">
       <c r="A43" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B43" s="22" t="s">
@@ -2619,7 +2611,7 @@
         <v>83</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -2634,7 +2626,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B44" s="22" t="s">
@@ -2644,7 +2636,7 @@
         <v>83</v>
       </c>
       <c r="D44" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E44" s="12" t="s">
@@ -2659,7 +2651,7 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="118.8" spans="1:9">
       <c r="A45" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -2669,7 +2661,7 @@
         <v>63</v>
       </c>
       <c r="D45" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -2684,7 +2676,7 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="105.6" spans="1:9">
       <c r="A46" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B46" s="24" t="s">
@@ -2694,7 +2686,7 @@
         <v>63</v>
       </c>
       <c r="D46" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="E46" s="15" t="s">
@@ -2709,7 +2701,7 @@
     </row>
     <row r="47" ht="92.4" spans="1:9">
       <c r="A47" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -2719,7 +2711,7 @@
         <v>98</v>
       </c>
       <c r="D47" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E47" s="18" t="s">
@@ -2734,7 +2726,7 @@
     </row>
     <row r="48" ht="52.8" spans="1:9">
       <c r="A48" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B48" s="26" t="s">
@@ -2744,7 +2736,7 @@
         <v>98</v>
       </c>
       <c r="D48" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E48" s="18" t="s">
@@ -2759,7 +2751,7 @@
     </row>
     <row r="49" ht="79.2" spans="1:9">
       <c r="A49" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B49" s="22" t="s">
@@ -2769,7 +2761,7 @@
         <v>98</v>
       </c>
       <c r="D49" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E49" s="12" t="s">
@@ -2784,7 +2776,7 @@
     </row>
     <row r="50" ht="26.4" spans="1:9">
       <c r="A50" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B50" s="22" t="s">
@@ -2794,7 +2786,7 @@
         <v>98</v>
       </c>
       <c r="D50" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E50" s="12" t="s">

--- a/SWP/Week7/Docs/OnlineLearn_Function Details.xlsx
+++ b/SWP/Week7/Docs/OnlineLearn_Function Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="121">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -93,6 +93,9 @@
     <t>This is a pop-up screen which allows the user to enter email &amp; password to login; on this page, there are also options for user to register new information or reset the password for the case s/he forget it</t>
   </si>
   <si>
+    <t>Sơn</t>
+  </si>
+  <si>
     <t>User Register</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>Send email</t>
   </si>
   <si>
+    <t>Quốc Anh</t>
+  </si>
+  <si>
     <t>User Authorization</t>
   </si>
   <si>
@@ -126,6 +132,9 @@
   </si>
   <si>
     <t>This is a pop-up screen which allows the user to view his/her profile information, including the registered ones &amp; the avatar image. Please note that s/he is not allowed to change the email</t>
+  </si>
+  <si>
+    <t>Linh</t>
   </si>
   <si>
     <t>Edit User Profile</t>
@@ -152,6 +161,9 @@
 - Shown course information includes its thumbnail, title, tag line; the user is redirected to the course's details on his/her clicking</t>
   </si>
   <si>
+    <t>Tú Anh</t>
+  </si>
+  <si>
     <t>Posts List</t>
   </si>
   <si>
@@ -165,6 +177,9 @@
   </si>
   <si>
     <t>Show post details (including title, author, updated date, category, and post details) + the sider with the post search box, posts categories, latest posts, static contacts/links</t>
+  </si>
+  <si>
+    <t>Mạnh</t>
   </si>
   <si>
     <t>Courses List</t>
@@ -221,7 +236,7 @@
     <t>This screen allows the user to review the details of the quiz that s/he has just taken, user can see flag question</t>
   </si>
   <si>
-    <t>Dashboard</t>
+    <t>Marketing Dashboard</t>
   </si>
   <si>
     <t>Marketing</t>
@@ -230,16 +245,19 @@
     <t>Show statistics of new subjects (new, all), revenues (total, by subject categories), customers (newly bought), and the trend of order counts by day for the last 7 days (the start date &amp; end date can be adjustable)</t>
   </si>
   <si>
-    <t>Post Details Edit</t>
-  </si>
-  <si>
-    <t>Sale</t>
+    <t>Edit Post List</t>
+  </si>
+  <si>
+    <t>Edit Post Details</t>
   </si>
   <si>
     <t>Show detailed post information (thumbnail, category, title, brief information,  description, flag to turn the featurning on/off, status), from that allow the user to input, view or edit them</t>
   </si>
   <si>
-    <t>Sliders List Edit</t>
+    <t>Nhập ảnh</t>
+  </si>
+  <si>
+    <t>Edit Sliders List</t>
   </si>
   <si>
     <t>Show the paginated list of sliders (including sliders' id, title, image, backlink, status)
@@ -247,10 +265,13 @@
 - For each slider, the user can choose to hide, show, edit it</t>
   </si>
   <si>
-    <t>Slider Details Edit</t>
+    <t>Edit Slider Details</t>
   </si>
   <si>
     <t>Show detailed slider information (image, title, backlink, status, notes)</t>
+  </si>
+  <si>
+    <t>Edit Courses List</t>
   </si>
   <si>
     <t>Course Content</t>
@@ -264,10 +285,7 @@
 - Edit course information (linked to the Subject Details for that)</t>
   </si>
   <si>
-    <t>New Course</t>
-  </si>
-  <si>
-    <t>The screen is shown with below information for the user to input new course information: name, thumbnail image, category, featured flag, owner, status, and description</t>
+    <t>Edit Course Details</t>
   </si>
   <si>
     <t>This page allows the admin and the assigned expert to access and prepare the subject information, including the course general information, the dimension, and price package. Only the admin can change the status to Published or Unpublished + add/edit the price packages</t>
@@ -305,18 +323,6 @@
   <si>
     <t>The existing questions list for a specific subject/course are shown here (paginatedly). On this screen, the admin/expert is allowed to filter the questions by the subject, lesson, dimension(s), level, status + search the questions by content
 Below information are shown for each quesiton in the list: id, content, subject /dimension /lesson, level, status + options to show, hide, edit it; The page also allows the user to import the question (redirect him/her to the Questions Import pop-up screen.</t>
-  </si>
-  <si>
-    <t>Question Details</t>
-  </si>
-  <si>
-    <t>This page allows the admin/expert to input or edit questions information, including following information: subject, dimension(s), lesson, status, content, media (image, audio, video – with preview option), answer options (with the key marked + ability to add, edit, delete), and explanation</t>
-  </si>
-  <si>
-    <t>Question Import</t>
-  </si>
-  <si>
-    <t>This is a pop-up screen which allows user to choose import file and then import the questions in the file into the questions bank. The screen also provides the option for the user to download the sample import template.</t>
   </si>
   <si>
     <t>Quizzes List</t>
@@ -327,13 +333,16 @@
 From this page, the user has the options to call to the Quiz Details page for adding new or editing existing quiz + delete the quiz. Please note that the quiz can be editted only when there is not any test taken yet.</t>
   </si>
   <si>
-    <t>Quiz Details</t>
+    <t>Edit Quiz Details</t>
   </si>
   <si>
     <t>This page allows the user to input or edit quiz information</t>
   </si>
   <si>
     <t>Registrations List</t>
+  </si>
+  <si>
+    <t>Sale</t>
   </si>
   <si>
     <t>Show the list of users' registrations
@@ -429,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -536,6 +545,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -544,20 +590,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -589,14 +621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -613,13 +637,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -628,6 +645,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,49 +682,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -707,49 +716,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,121 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,6 +915,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,32 +982,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1001,6 +999,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1010,15 +1019,15 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,131 +1035,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1626,12 +1635,12 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
@@ -1641,7 +1650,7 @@
     <col min="3" max="3" width="16.3" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.7" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.8" style="2" customWidth="1"/>
-    <col min="6" max="6" width="62.7" style="3" customWidth="1"/>
+    <col min="6" max="6" width="45.9583333333333" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.8" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.0166666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.1833333333333" style="2" customWidth="1"/>
@@ -1691,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="10">
-        <f>SUM(D11:D50)</f>
+        <f>SUM(D11:D48)</f>
         <v>5040</v>
       </c>
     </row>
@@ -1715,7 +1724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
         <v>5</v>
@@ -1741,8 +1750,9 @@
       <c r="I10" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" ht="39.6" spans="1:9">
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" ht="52.8" spans="1:10">
       <c r="A11" s="12">
         <f>ROW()-9</f>
         <v>2</v>
@@ -1754,7 +1764,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="13">
-        <f>IF(E11="Complex",240,IF(E11="Medium",120,60))</f>
+        <f t="shared" ref="D11:D22" si="0">IF(E11="Complex",240,IF(E11="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -1770,27 +1780,30 @@
         <v>1</v>
       </c>
       <c r="I11" s="14"/>
-    </row>
-    <row r="12" ht="52.8" spans="1:9">
+      <c r="J11" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="66" spans="1:10">
       <c r="A12" s="12">
         <f>ROW()-9</f>
         <v>3</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="13">
-        <f>IF(E12="Complex",240,IF(E12="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="14">
         <v>9</v>
@@ -1799,27 +1812,30 @@
         <v>5</v>
       </c>
       <c r="I12" s="14"/>
-    </row>
-    <row r="13" ht="79.2" spans="1:9">
+      <c r="J12" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="105.6" spans="1:10">
       <c r="A13" s="12">
         <f>ROW()-9</f>
         <v>4</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="13">
-        <f>IF(E13="Complex",240,IF(E13="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="14">
         <v>1</v>
@@ -1828,56 +1844,62 @@
         <v>2</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" ht="52.8" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="66" spans="1:10">
       <c r="A14" s="12">
         <f>ROW()-9</f>
         <v>5</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="16">
-        <f>IF(E14="Complex",240,IF(E14="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="39.6" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="52.8" spans="1:10">
       <c r="A15" s="12">
         <f>ROW()-9</f>
         <v>6</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="13">
-        <f>IF(E15="Complex",240,IF(E15="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G15" s="14">
         <v>16</v>
@@ -1886,55 +1908,61 @@
         <v>4</v>
       </c>
       <c r="I15" s="14"/>
-    </row>
-    <row r="16" ht="39.6" spans="1:9">
+      <c r="J15" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="52.8" spans="1:10">
       <c r="A16" s="12">
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="13">
-        <f>IF(E16="Complex",240,IF(E16="Medium",120,60))</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G16" s="14">
         <v>6</v>
       </c>
       <c r="H16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="14"/>
-    </row>
-    <row r="17" ht="26.4" spans="1:9">
+      <c r="J16" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="39.6" spans="1:10">
       <c r="A17" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" ref="A17:A22" si="1">ROW()-9</f>
         <v>8</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="13">
-        <f>IF(E17="Complex",240,IF(E17="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G17" s="14">
         <v>3</v>
@@ -1943,27 +1971,30 @@
         <v>3</v>
       </c>
       <c r="I17" s="14"/>
-    </row>
-    <row r="18" ht="105.6" spans="1:9">
+      <c r="J17" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" ht="132" spans="1:10">
       <c r="A18" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" s="13">
-        <f>IF(E18="Complex",240,IF(E18="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G18" s="14">
         <v>13</v>
@@ -1972,56 +2003,62 @@
         <v>4</v>
       </c>
       <c r="I18" s="14"/>
-    </row>
-    <row r="19" ht="52.8" spans="1:9">
+      <c r="J18" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" ht="66" spans="1:10">
       <c r="A19" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D19" s="13">
-        <f>IF(E19="Complex",240,IF(E19="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G19" s="14">
         <v>8</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" ht="26.4" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" ht="39.6" spans="1:10">
       <c r="A20" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D20" s="13">
-        <f>IF(E20="Complex",240,IF(E20="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G20" s="14">
         <v>6</v>
@@ -2030,81 +2067,90 @@
         <v>1</v>
       </c>
       <c r="I20" s="14"/>
-    </row>
-    <row r="21" ht="92.4" spans="1:9">
+      <c r="J20" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" ht="118.8" spans="1:10">
       <c r="A21" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="13">
-        <f>IF(E21="Complex",240,IF(E21="Medium",120,60))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G21" s="14">
         <v>8</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" ht="52.8" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" ht="66" spans="1:10">
       <c r="A22" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D22" s="13">
-        <f>IF(E22="Complex",240,IF(E22="Medium",120,60))</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G22" s="14">
         <v>9</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="12">
         <v>14</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D23" s="13">
         <v>60</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G23" s="14">
         <v>5</v>
@@ -2113,27 +2159,30 @@
         <v>4</v>
       </c>
       <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="12">
-        <f t="shared" ref="A24:A50" si="0">ROW()-9</f>
+        <f>ROW()-9</f>
         <v>15</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D24" s="13">
-        <f t="shared" ref="D24:D50" si="1">IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
+        <f>IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G24" s="14">
         <v>11</v>
@@ -2142,27 +2191,30 @@
         <v>1</v>
       </c>
       <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" ht="26.4" spans="1:10">
       <c r="A25" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(E25="Complex",240,IF(E25="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G25" s="14">
         <v>3</v>
@@ -2171,683 +2223,736 @@
         <v>3</v>
       </c>
       <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" ht="26.4" spans="1:10">
       <c r="A26" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D26" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(E26="Complex",240,IF(E26="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G26" s="14">
         <v>7</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-    </row>
-    <row r="27" ht="26.4" spans="1:9">
+      <c r="J26" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" ht="26.4" spans="1:10">
       <c r="A27" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D27" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(E27="Complex",240,IF(E27="Medium",120,60))</f>
         <v>240</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="14">
+        <v>8</v>
+      </c>
       <c r="I27" s="14"/>
-    </row>
-    <row r="28" ht="26.4" spans="1:9">
+      <c r="J27" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" ht="26.4" spans="1:10">
       <c r="A28" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D28" s="13">
-        <f t="shared" si="1"/>
-        <v>240</v>
+        <f>IF(E28="Complex",240,IF(E28="Medium",120,60))</f>
+        <v>120</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="G28" s="14">
+        <v>11</v>
+      </c>
+      <c r="H28" s="14">
+        <v>3</v>
+      </c>
       <c r="I28" s="14"/>
-    </row>
-    <row r="29" ht="39.6" spans="1:9">
+      <c r="J28" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" ht="52.8" spans="1:10">
       <c r="A29" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D29" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(E29="Complex",240,IF(E29="Medium",120,60))</f>
         <v>240</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="14">
+        <v>8</v>
+      </c>
       <c r="I29" s="14"/>
-    </row>
-    <row r="30" ht="39.6" spans="1:9">
+      <c r="J29" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="12">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>62</v>
+      <c r="B30" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30" s="13">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f>IF(E30="Complex",240,IF(E30="Medium",120,60))</f>
+        <v>240</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>64</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-    </row>
-    <row r="31" ht="39.6" spans="1:9">
+      <c r="J30" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" ht="52.8" spans="1:10">
       <c r="A31" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>22</v>
       </c>
       <c r="B31" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="D31" s="13">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>IF(E31="Complex",240,IF(E31="Medium",120,60))</f>
+        <v>120</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="H31" s="14">
+        <v>7</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" ht="66" spans="1:10">
       <c r="A32" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>23</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D32" s="13">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>IF(E32="Complex",240,IF(E32="Medium",120,60))</f>
+        <v>120</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="14">
+        <v>6</v>
+      </c>
       <c r="I32" s="14"/>
-    </row>
-    <row r="33" ht="92.4" spans="1:9">
+      <c r="J32" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" ht="26.4" spans="1:10">
       <c r="A33" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>24</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D33" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(E33="Complex",240,IF(E33="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F33" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14">
+        <v>2</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" ht="39.6" spans="1:9">
+      <c r="J33" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" ht="132" spans="1:10">
       <c r="A34" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>25</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D34" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(E34="Complex",240,IF(E34="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="14">
+        <v>5</v>
+      </c>
       <c r="I34" s="14"/>
-    </row>
-    <row r="35" ht="52.8" spans="1:9">
+      <c r="J34" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" ht="66" spans="1:10">
       <c r="A35" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>26</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D35" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(E35="Complex",240,IF(E35="Medium",120,60))</f>
         <v>240</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-    </row>
-    <row r="36" ht="26.4" spans="1:9">
+      <c r="J35" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" ht="39.6" spans="1:10">
       <c r="A36" s="18">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>27</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D36" s="19">
-        <f t="shared" si="1"/>
+        <f>IF(E36="Complex",240,IF(E36="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-    </row>
-    <row r="37" ht="39.6" spans="1:9">
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" ht="52.8" spans="1:10">
       <c r="A37" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>28</v>
       </c>
       <c r="B37" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="D37" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(E37="Complex",240,IF(E37="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-    </row>
-    <row r="38" ht="39.6" spans="1:9">
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" ht="52.8" spans="1:10">
       <c r="A38" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>29</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D38" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(E38="Complex",240,IF(E38="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" ht="26.4" spans="1:10">
       <c r="A39" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>30</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D39" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(E39="Complex",240,IF(E39="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-    </row>
-    <row r="40" ht="92.4" spans="1:9">
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" ht="118.8" spans="1:10">
       <c r="A40" s="12">
-        <f t="shared" si="0"/>
+        <f>ROW()-9</f>
         <v>31</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D40" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(E40="Complex",240,IF(E40="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-    </row>
-    <row r="41" ht="52.8" spans="1:9">
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" ht="92.4" spans="1:10">
       <c r="A41" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A41:A48" si="2">ROW()-9</f>
         <v>32</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D41" s="13">
-        <f t="shared" si="1"/>
-        <v>240</v>
+        <f t="shared" ref="D41:D48" si="3">IF(E41="Complex",240,IF(E41="Medium",120,60))</f>
+        <v>120</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-    </row>
-    <row r="42" ht="39.6" spans="1:9">
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D42" s="13">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>240</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-    </row>
-    <row r="43" ht="79.2" spans="1:9">
-      <c r="A43" s="12">
-        <f t="shared" si="0"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="145.2" spans="1:10">
+      <c r="A43" s="15">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="13">
-        <f t="shared" si="1"/>
+      <c r="B43" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="16">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>90</v>
+      <c r="E43" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="12">
-        <f t="shared" si="0"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="132" spans="1:10">
+      <c r="A44" s="15">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="13">
-        <f t="shared" si="1"/>
+      <c r="B44" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="16">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>92</v>
+      <c r="E44" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="118.8" spans="1:9">
-      <c r="A45" s="15">
-        <f t="shared" si="0"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" ht="118.8" spans="1:10">
+      <c r="A45" s="18">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B45" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="16">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>94</v>
+      <c r="B45" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="19">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="105.6" spans="1:9">
-      <c r="A46" s="15">
-        <f t="shared" si="0"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" ht="92.4" spans="1:10">
+      <c r="A46" s="18">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B46" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="16">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>96</v>
+      <c r="B46" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="19">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
-    </row>
-    <row r="47" ht="92.4" spans="1:9">
-      <c r="A47" s="18">
-        <f t="shared" si="0"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" ht="118.8" spans="1:10">
+      <c r="A47" s="12">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="19">
-        <f t="shared" si="1"/>
+      <c r="B47" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="27" t="s">
-        <v>99</v>
+      <c r="F47" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
-    </row>
-    <row r="48" ht="52.8" spans="1:9">
-      <c r="A48" s="18">
-        <f t="shared" si="0"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" ht="39.6" spans="1:10">
+      <c r="A48" s="12">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="19">
-        <f t="shared" si="1"/>
+      <c r="B48" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="27" t="s">
-        <v>101</v>
+      <c r="F48" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
-    </row>
-    <row r="49" ht="79.2" spans="1:9">
-      <c r="A49" s="12">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="13">
-        <f t="shared" si="1"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" ht="28.8" spans="1:6">
+      <c r="A49" s="2">
+        <v>41</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="2">
+        <v>240</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" ht="72" spans="1:6">
+      <c r="A50" s="2">
+        <v>42</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="2">
+        <v>240</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>43</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2">
         <v>60</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" ht="26.4" spans="1:9">
-      <c r="A50" s="12">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="13">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" ht="28.8" spans="1:6">
-      <c r="A51" s="2">
-        <v>41</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="2">
-        <v>240</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F51" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" ht="72" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="2">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" ht="28.8" spans="1:6">
       <c r="A53" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="D53" s="2">
         <v>60</v>
@@ -2856,72 +2961,32 @@
         <v>17</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="2">
-        <v>44</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="A54" s="1">
+        <v>46</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="1">
         <v>60</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" ht="28.8" spans="1:6">
-      <c r="A55" s="2">
-        <v>45</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="2">
-        <v>60</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1">
-        <v>46</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="1">
-        <v>60</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>117</v>
+      <c r="F54" s="21" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E23 E11:E15 E17:E18 E19:E22 E24:E50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E23 E30 E11:E15 E17:E18 E19:E22 E24:E29 E31:E34 E35:E40 E41:E48">
       <formula1>"Simple, Medium, Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SWP/Week7/Docs/OnlineLearn_Function Details.xlsx
+++ b/SWP/Week7/Docs/OnlineLearn_Function Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="119">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
   </si>
@@ -291,12 +291,6 @@
     <t>This page allows the admin and the assigned expert to access and prepare the subject information, including the course general information, the dimension, and price package. Only the admin can change the status to Published or Unpublished + add/edit the price packages</t>
   </si>
   <si>
-    <t>Subject Dimension</t>
-  </si>
-  <si>
-    <t>This page allow the admin/expert to input or edit subject dimension information, including the following detailed information: type, name, description</t>
-  </si>
-  <si>
     <t>Price Package</t>
   </si>
   <si>
@@ -438,10 +432,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -545,8 +539,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,133 +670,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -716,31 +710,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,145 +854,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,16 +914,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,31 +956,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,13 +987,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,15 +1013,15 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1035,131 +1029,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,7 +1333,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2035810" y="0"/>
+          <a:off x="2119630" y="0"/>
           <a:ext cx="2567940" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1635,18 +1629,18 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.8" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.3" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.7" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.8" style="2" customWidth="1"/>
@@ -1700,8 +1694,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="10">
-        <f>SUM(D11:D48)</f>
-        <v>5040</v>
+        <f>SUM(D11:D47)</f>
+        <v>4980</v>
       </c>
     </row>
     <row r="9" hidden="1" spans="1:6">
@@ -2165,7 +2159,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" ref="A24:A29" si="2">ROW()-9</f>
         <v>15</v>
       </c>
       <c r="B24" s="22" t="s">
@@ -2175,7 +2169,7 @@
         <v>52</v>
       </c>
       <c r="D24" s="13">
-        <f>IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
+        <f t="shared" ref="D24:D40" si="3">IF(E24="Complex",240,IF(E24="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2197,7 +2191,7 @@
     </row>
     <row r="25" ht="26.4" spans="1:10">
       <c r="A25" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -2207,7 +2201,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="13">
-        <f>IF(E25="Complex",240,IF(E25="Medium",120,60))</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -2229,7 +2223,7 @@
     </row>
     <row r="26" ht="26.4" spans="1:10">
       <c r="A26" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -2239,7 +2233,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="13">
-        <f>IF(E26="Complex",240,IF(E26="Medium",120,60))</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -2259,7 +2253,7 @@
     </row>
     <row r="27" ht="26.4" spans="1:10">
       <c r="A27" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -2269,7 +2263,7 @@
         <v>52</v>
       </c>
       <c r="D27" s="13">
-        <f>IF(E27="Complex",240,IF(E27="Medium",120,60))</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -2289,7 +2283,7 @@
     </row>
     <row r="28" ht="26.4" spans="1:10">
       <c r="A28" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -2299,7 +2293,7 @@
         <v>52</v>
       </c>
       <c r="D28" s="13">
-        <f>IF(E28="Complex",240,IF(E28="Medium",120,60))</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2321,7 +2315,7 @@
     </row>
     <row r="29" ht="52.8" spans="1:10">
       <c r="A29" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
@@ -2331,7 +2325,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="13">
-        <f>IF(E29="Complex",240,IF(E29="Medium",120,60))</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E29" s="12" t="s">
@@ -2360,7 +2354,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="13">
-        <f>IF(E30="Complex",240,IF(E30="Medium",120,60))</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E30" s="12" t="s">
@@ -2386,7 +2380,7 @@
         <v>65</v>
       </c>
       <c r="D31" s="13">
-        <f>IF(E31="Complex",240,IF(E31="Medium",120,60))</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2418,7 +2412,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="13">
-        <f>IF(E32="Complex",240,IF(E32="Medium",120,60))</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E32" s="12" t="s">
@@ -2448,7 +2442,7 @@
         <v>65</v>
       </c>
       <c r="D33" s="13">
-        <f>IF(E33="Complex",240,IF(E33="Medium",120,60))</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -2480,7 +2474,7 @@
         <v>76</v>
       </c>
       <c r="D34" s="13">
-        <f>IF(E34="Complex",240,IF(E34="Medium",120,60))</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2510,7 +2504,7 @@
         <v>76</v>
       </c>
       <c r="D35" s="13">
-        <f>IF(E35="Complex",240,IF(E35="Medium",120,60))</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -2526,25 +2520,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" ht="39.6" spans="1:10">
-      <c r="A36" s="18">
+    <row r="36" ht="52.8" spans="1:10">
+      <c r="A36" s="12">
         <f>ROW()-9</f>
         <v>27</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="13">
         <f>IF(E36="Complex",240,IF(E36="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="23" t="s">
         <v>81</v>
       </c>
       <c r="G36" s="14"/>
@@ -2565,10 +2559,10 @@
       </c>
       <c r="D37" s="13">
         <f>IF(E37="Complex",240,IF(E37="Medium",120,60))</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>83</v>
@@ -2578,7 +2572,7 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" ht="52.8" spans="1:10">
+    <row r="38" ht="26.4" spans="1:10">
       <c r="A38" s="12">
         <f>ROW()-9</f>
         <v>29</v>
@@ -2604,7 +2598,7 @@
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
     </row>
-    <row r="39" ht="26.4" spans="1:10">
+    <row r="39" ht="118.8" spans="1:10">
       <c r="A39" s="12">
         <f>ROW()-9</f>
         <v>30</v>
@@ -2613,7 +2607,7 @@
         <v>86</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D39" s="13">
         <f>IF(E39="Complex",240,IF(E39="Medium",120,60))</f>
@@ -2623,26 +2617,26 @@
         <v>21</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" ht="118.8" spans="1:10">
+    <row r="40" ht="92.4" spans="1:10">
       <c r="A40" s="12">
-        <f>ROW()-9</f>
+        <f t="shared" ref="A40:A47" si="4">ROW()-9</f>
         <v>31</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D40" s="13">
-        <f>IF(E40="Complex",240,IF(E40="Medium",120,60))</f>
+        <f t="shared" ref="D40:D47" si="5">IF(E40="Complex",240,IF(E40="Medium",120,60))</f>
         <v>120</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2656,23 +2650,23 @@
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" ht="92.4" spans="1:10">
+    <row r="41" spans="1:10">
       <c r="A41" s="12">
-        <f t="shared" ref="A41:A48" si="2">ROW()-9</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>91</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" s="13">
-        <f t="shared" ref="D41:D48" si="3">IF(E41="Complex",240,IF(E41="Medium",120,60))</f>
-        <v>120</v>
+        <f t="shared" si="5"/>
+        <v>240</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>92</v>
@@ -2682,45 +2676,45 @@
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="12">
-        <f t="shared" si="2"/>
+    <row r="42" s="1" customFormat="1" ht="145.2" spans="1:10">
+      <c r="A42" s="15">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="13">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="23" t="s">
+      <c r="C42" s="24" t="s">
         <v>94</v>
+      </c>
+      <c r="D42" s="16">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="145.2" spans="1:10">
+    <row r="43" s="1" customFormat="1" ht="132" spans="1:10">
       <c r="A43" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D43" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="E43" s="15" t="s">
@@ -2734,45 +2728,45 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="132" spans="1:10">
-      <c r="A44" s="15">
-        <f t="shared" si="2"/>
+    <row r="44" ht="118.8" spans="1:10">
+      <c r="A44" s="18">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="16">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="25" t="s">
+      <c r="C44" s="26" t="s">
         <v>99</v>
+      </c>
+      <c r="D44" s="19">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" ht="118.8" spans="1:10">
+    <row r="45" ht="92.4" spans="1:10">
       <c r="A45" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D45" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E45" s="18" t="s">
@@ -2786,25 +2780,25 @@
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" ht="92.4" spans="1:10">
-      <c r="A46" s="18">
-        <f t="shared" si="2"/>
+    <row r="46" ht="118.8" spans="1:10">
+      <c r="A46" s="12">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="19">
-        <f t="shared" si="3"/>
+      <c r="C46" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="23" t="s">
         <v>104</v>
       </c>
       <c r="G46" s="14"/>
@@ -2812,19 +2806,19 @@
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
     </row>
-    <row r="47" ht="118.8" spans="1:10">
+    <row r="47" ht="39.6" spans="1:10">
       <c r="A47" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D47" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E47" s="12" t="s">
@@ -2838,41 +2832,35 @@
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
     </row>
-    <row r="48" ht="39.6" spans="1:10">
-      <c r="A48" s="12">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="B48" s="22" t="s">
+    <row r="48" ht="28.8" spans="1:6">
+      <c r="A48" s="2">
+        <v>41</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="13">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="23" t="s">
+      <c r="C48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="2">
+        <v>240</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" ht="28.8" spans="1:6">
+    </row>
+    <row r="49" ht="100.8" spans="1:6">
       <c r="A49" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2">
         <v>240</v>
@@ -2884,9 +2872,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" ht="72" spans="1:6">
+    <row r="50" ht="28.8" spans="1:6">
       <c r="A50" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>111</v>
@@ -2895,10 +2883,10 @@
         <v>16</v>
       </c>
       <c r="D50" s="2">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>112</v>
@@ -2906,7 +2894,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>113</v>
@@ -2924,15 +2912,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" ht="43.2" spans="1:6">
       <c r="A52" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D52" s="2">
         <v>60</v>
@@ -2944,49 +2932,29 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" ht="28.8" spans="1:6">
-      <c r="A53" s="2">
-        <v>45</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>46</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="C53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="1">
         <v>60</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="21" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1">
-        <v>46</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="1">
-        <v>60</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E23 E30 E11:E15 E17:E18 E19:E22 E24:E29 E31:E34 E35:E40 E41:E48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E23 E30 E35 E11:E15 E17:E18 E19:E22 E24:E29 E31:E34 E36:E39 E40:E47">
       <formula1>"Simple, Medium, Complex"</formula1>
     </dataValidation>
   </dataValidations>
